--- a/AstrumConfig/Tables/Datas/Entity/#EntityBase.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#EntityBase.xlsx
@@ -521,14 +521,6 @@
           <t>##group</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,42 +530,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EntityID</t>
+          <t>实体ID</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ModelID</t>
+          <t>模型ID</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IdleAction</t>
+          <t>静止动作</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WalkAction</t>
+          <t>走路动作</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RunAction</t>
+          <t>跑步动作</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>JumpAction</t>
+          <t>跳跃动作</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BirthAction</t>
+          <t>出生动作</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>DeathAction</t>
+          <t>死亡动作</t>
         </is>
       </c>
     </row>
